--- a/data/trans_camb/P11_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,79</t>
+          <t>-7,47; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 4,59</t>
+          <t>-5,53; 4,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 10,73</t>
+          <t>1,73; 10,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 0,43</t>
+          <t>-12,18; 0,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 1,82</t>
+          <t>-11,41; 1,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 11,44</t>
+          <t>-1,27; 10,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 0,48</t>
+          <t>-7,82; 0,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,98</t>
+          <t>-5,92; 2,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,13</t>
+          <t>2,37; 10,21</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 14,8</t>
+          <t>-42,46; 17,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 35,71</t>
+          <t>-31,94; 33,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 86,4</t>
+          <t>8,86; 89,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 2,38</t>
+          <t>-47,48; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,02; 11,22</t>
+          <t>-43,74; 7,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 61,42</t>
+          <t>-4,61; 57,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 3,22</t>
+          <t>-38,73; 2,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 12,28</t>
+          <t>-28,97; 13,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 65,4</t>
+          <t>11,83; 64,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 9,33</t>
+          <t>-0,47; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,56</t>
+          <t>-4,89; 5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 16,9</t>
+          <t>5,83; 16,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,51</t>
+          <t>-5,53; 6,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,72</t>
+          <t>-5,12; 6,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 15,79</t>
+          <t>4,78; 15,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,3</t>
+          <t>-1,62; 6,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,65</t>
+          <t>-3,17; 4,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,28</t>
+          <t>6,5; 14,21</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 101,52</t>
+          <t>-4,66; 100,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 59,86</t>
+          <t>-33,85; 50,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 177,7</t>
+          <t>38,65; 175,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 41,79</t>
+          <t>-25,99; 42,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 42,98</t>
+          <t>-23,09; 43,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 104,63</t>
+          <t>21,62; 106,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 46,52</t>
+          <t>-9,22; 45,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 34,53</t>
+          <t>-18,91; 34,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,1; 108,37</t>
+          <t>38,3; 112,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,98</t>
+          <t>-0,2; 10,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,92</t>
+          <t>-2,94; 7,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 14,33</t>
+          <t>-12,71; 14,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 11,26</t>
+          <t>-7,57; 11,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 9,09</t>
+          <t>-11,9; 8,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 26,36</t>
+          <t>6,4; 25,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 9,3</t>
+          <t>0,31; 9,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,23</t>
+          <t>-3,0; 5,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 15,79</t>
+          <t>-12,5; 15,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 64,02</t>
+          <t>-0,51; 63,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 43,51</t>
+          <t>-14,18; 43,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 82,18</t>
+          <t>-61,35; 78,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 46,91</t>
+          <t>-20,94; 46,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 36,4</t>
+          <t>-34,65; 32,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 112,12</t>
+          <t>17,44; 100,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 51,29</t>
+          <t>1,58; 48,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 32,92</t>
+          <t>-12,88; 31,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 78,33</t>
+          <t>-54,88; 77,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,97</t>
+          <t>-4,2; 2,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,61</t>
+          <t>-4,36; 2,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,69</t>
+          <t>4,27; 11,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,27</t>
+          <t>-5,68; 3,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 2,93</t>
+          <t>-6,2; 3,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 45,89</t>
+          <t>6,86; 47,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,0</t>
+          <t>-3,64; 1,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,75</t>
+          <t>-3,84; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 34,86</t>
+          <t>7,52; 31,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 14,27</t>
+          <t>-17,03; 12,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 12,2</t>
+          <t>-18,07; 11,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,85; 54,36</t>
+          <t>17,36; 56,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 13,53</t>
+          <t>-20,05; 14,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 12,33</t>
+          <t>-21,64; 13,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,72; 193,68</t>
+          <t>24,08; 195,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 8,69</t>
+          <t>-14,6; 7,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 7,25</t>
+          <t>-15,4; 7,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,03; 148,85</t>
+          <t>30,17; 134,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 3,12</t>
+          <t>-8,19; 3,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,81</t>
+          <t>-4,53; 6,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,6; 17,19</t>
+          <t>4,5; 17,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,24</t>
+          <t>4,71; 15,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,51</t>
+          <t>1,51; 12,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 20,44</t>
+          <t>1,86; 20,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 9,2</t>
+          <t>1,03; 9,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,94</t>
+          <t>0,67; 7,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 17,52</t>
+          <t>5,34; 17,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 15,73</t>
+          <t>-31,46; 19,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 36,44</t>
+          <t>-17,2; 36,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,83; 93,65</t>
+          <t>18,45; 92,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,53; 64,54</t>
+          <t>15,15; 61,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,22; 49,21</t>
+          <t>5,09; 47,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,11; 78,88</t>
+          <t>8,33; 77,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,17; 38,74</t>
+          <t>3,71; 39,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,88; 33,15</t>
+          <t>2,35; 33,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,53; 73,41</t>
+          <t>21,69; 72,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,71</t>
+          <t>-4,1; 5,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,63</t>
+          <t>-5,86; 2,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 13,45</t>
+          <t>-1,71; 13,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 5,92</t>
+          <t>-2,07; 5,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,97</t>
+          <t>-6,41; 1,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 8,94</t>
+          <t>0,46; 9,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,18</t>
+          <t>-1,45; 5,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,72</t>
+          <t>-6,5; 0,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,2</t>
+          <t>-0,51; 7,0</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 98,02</t>
+          <t>-44,54; 116,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 55,03</t>
+          <t>-66,28; 57,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 251,65</t>
+          <t>-24,34; 240,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 16,95</t>
+          <t>-5,41; 17,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 5,76</t>
+          <t>-17,01; 5,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,79; 26,25</t>
+          <t>1,78; 26,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 18,36</t>
+          <t>-4,34; 18,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 2,64</t>
+          <t>-20,33; 1,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 25,59</t>
+          <t>-1,55; 23,75</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,71</t>
+          <t>-1,49; 2,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,43</t>
+          <t>-1,49; 2,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,64</t>
+          <t>0,68; 9,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,32</t>
+          <t>-0,23; 4,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,61</t>
+          <t>-2,77; 1,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,45; 22,43</t>
+          <t>6,93; 22,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,02</t>
+          <t>-0,18; 2,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,48</t>
+          <t>-1,52; 1,62</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,48</t>
+          <t>5,76; 15,15</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 15,78</t>
+          <t>-7,58; 14,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 14,02</t>
+          <t>-7,88; 13,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,14; 54,75</t>
+          <t>3,84; 54,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 15,26</t>
+          <t>-0,71; 14,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 5,82</t>
+          <t>-9,17; 5,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>21,6; 76,05</t>
+          <t>23,39; 74,07</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 13,09</t>
+          <t>-0,61; 12,94</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 6,43</t>
+          <t>-6,18; 7,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,71; 69,11</t>
+          <t>24,13; 64,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
